--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Volatility/SwaptionVols_v2.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Volatility/SwaptionVols_v2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Volatility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Volatility\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A70C0CD-71C3-4797-A0F0-3B8F878E3824}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="18075" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="630" windowWidth="26370" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SwaptionData" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
     <definedName name="IRCurve6m">[1]IRBootstrap6m!$D$5</definedName>
     <definedName name="StrikeQuoteUnits">[2]Configuration!$D$2:$D$4</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
